--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H2">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I2">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J2">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.65495039995025</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N2">
-        <v>3.65495039995025</v>
+        <v>15.317941</v>
       </c>
       <c r="O2">
-        <v>0.03314322949012163</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P2">
-        <v>0.03314322949012163</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q2">
-        <v>88.0243933026165</v>
+        <v>124.8006742621665</v>
       </c>
       <c r="R2">
-        <v>88.0243933026165</v>
+        <v>1123.206068359498</v>
       </c>
       <c r="S2">
-        <v>0.01139562758926035</v>
+        <v>0.01501710704847125</v>
       </c>
       <c r="T2">
-        <v>0.01139562758926035</v>
+        <v>0.01501710704847125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H3">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I3">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J3">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.7096835271813</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N3">
-        <v>92.7096835271813</v>
+        <v>278.476586</v>
       </c>
       <c r="O3">
-        <v>0.8406949427110538</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P3">
-        <v>0.8406949427110538</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q3">
-        <v>2232.783691365221</v>
+        <v>2268.847079318701</v>
       </c>
       <c r="R3">
-        <v>2232.783691365221</v>
+        <v>20419.62371386831</v>
       </c>
       <c r="S3">
-        <v>0.2890559137022279</v>
+        <v>0.2730074950970768</v>
       </c>
       <c r="T3">
-        <v>0.2890559137022279</v>
+        <v>0.2730074950970768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.083608167108</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H4">
-        <v>24.083608167108</v>
+        <v>73.326178</v>
       </c>
       <c r="I4">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J4">
-        <v>0.3438297282603925</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.9128030088077</v>
+        <v>0.04351533333333333</v>
       </c>
       <c r="N4">
-        <v>13.9128030088077</v>
+        <v>0.130546</v>
       </c>
       <c r="O4">
-        <v>0.1261618277988245</v>
+        <v>0.0003830659699865731</v>
       </c>
       <c r="P4">
-        <v>0.1261618277988245</v>
+        <v>0.0003830659699865732</v>
       </c>
       <c r="Q4">
-        <v>335.0704961702859</v>
+        <v>1.063604359243111</v>
       </c>
       <c r="R4">
-        <v>335.0704961702859</v>
+        <v>9.572439233188</v>
       </c>
       <c r="S4">
-        <v>0.04337818696890428</v>
+        <v>0.0001279821652759811</v>
       </c>
       <c r="T4">
-        <v>0.04337818696890428</v>
+        <v>0.0001279821652759812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.1186355499312</v>
+        <v>24.44205933333333</v>
       </c>
       <c r="H5">
-        <v>25.1186355499312</v>
+        <v>73.326178</v>
       </c>
       <c r="I5">
-        <v>0.3586063008282936</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="J5">
-        <v>0.3586063008282936</v>
+        <v>0.3340995423855245</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.65495039995025</v>
+        <v>15.62246733333333</v>
       </c>
       <c r="N5">
-        <v>3.65495039995025</v>
+        <v>46.867402</v>
       </c>
       <c r="O5">
-        <v>0.03314322949012163</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="P5">
-        <v>0.03314322949012163</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="Q5">
-        <v>91.80736704942561</v>
+        <v>381.8452734943951</v>
       </c>
       <c r="R5">
-        <v>91.80736704942561</v>
+        <v>3436.607461449556</v>
       </c>
       <c r="S5">
-        <v>0.01188537092495573</v>
+        <v>0.04594695807470049</v>
       </c>
       <c r="T5">
-        <v>0.01188537092495573</v>
+        <v>0.04594695807470049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H6">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I6">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J6">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.7096835271813</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N6">
-        <v>92.7096835271813</v>
+        <v>15.317941</v>
       </c>
       <c r="O6">
-        <v>0.8406949427110538</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P6">
-        <v>0.8406949427110538</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q6">
-        <v>2328.740752468727</v>
+        <v>128.3034295326299</v>
       </c>
       <c r="R6">
-        <v>2328.740752468727</v>
+        <v>1154.730865793669</v>
       </c>
       <c r="S6">
-        <v>0.3014785035306652</v>
+        <v>0.01543858915321252</v>
       </c>
       <c r="T6">
-        <v>0.3014785035306652</v>
+        <v>0.01543858915321251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.1186355499312</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H7">
-        <v>25.1186355499312</v>
+        <v>75.384209</v>
       </c>
       <c r="I7">
-        <v>0.3586063008282936</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J7">
-        <v>0.3586063008282936</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.9128030088077</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N7">
-        <v>13.9128030088077</v>
+        <v>278.476586</v>
       </c>
       <c r="O7">
-        <v>0.1261618277988245</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P7">
-        <v>0.1261618277988245</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q7">
-        <v>349.4706282562268</v>
+        <v>2332.526351181164</v>
       </c>
       <c r="R7">
-        <v>349.4706282562268</v>
+        <v>20992.73716063047</v>
       </c>
       <c r="S7">
-        <v>0.04524242637267264</v>
+        <v>0.2806699412175078</v>
       </c>
       <c r="T7">
-        <v>0.04524242637267264</v>
+        <v>0.2806699412175077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.49851553721209</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H8">
-        <v>6.49851553721209</v>
+        <v>75.384209</v>
       </c>
       <c r="I8">
-        <v>0.09277608304170812</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J8">
-        <v>0.09277608304170812</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.65495039995025</v>
+        <v>0.04351533333333333</v>
       </c>
       <c r="N8">
-        <v>3.65495039995025</v>
+        <v>0.130546</v>
       </c>
       <c r="O8">
-        <v>0.03314322949012163</v>
+        <v>0.0003830659699865731</v>
       </c>
       <c r="P8">
-        <v>0.03314322949012163</v>
+        <v>0.0003830659699865732</v>
       </c>
       <c r="Q8">
-        <v>23.75175196181624</v>
+        <v>1.093456327568222</v>
       </c>
       <c r="R8">
-        <v>23.75175196181624</v>
+        <v>9.841106948114</v>
       </c>
       <c r="S8">
-        <v>0.003074899011445914</v>
+        <v>0.0001315742148109384</v>
       </c>
       <c r="T8">
-        <v>0.003074899011445914</v>
+        <v>0.0001315742148109384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.49851553721209</v>
+        <v>25.12806966666666</v>
       </c>
       <c r="H9">
-        <v>6.49851553721209</v>
+        <v>75.384209</v>
       </c>
       <c r="I9">
-        <v>0.09277608304170812</v>
+        <v>0.3434766466349131</v>
       </c>
       <c r="J9">
-        <v>0.09277608304170812</v>
+        <v>0.343476646634913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>92.7096835271813</v>
+        <v>15.62246733333333</v>
       </c>
       <c r="N9">
-        <v>92.7096835271813</v>
+        <v>46.867402</v>
       </c>
       <c r="O9">
-        <v>0.8406949427110538</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="P9">
-        <v>0.8406949427110538</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="Q9">
-        <v>602.4753188514035</v>
+        <v>392.5624475172242</v>
       </c>
       <c r="R9">
-        <v>602.4753188514035</v>
+        <v>3533.062027655018</v>
       </c>
       <c r="S9">
-        <v>0.07799638381770478</v>
+        <v>0.04723654204938187</v>
       </c>
       <c r="T9">
-        <v>0.07799638381770478</v>
+        <v>0.04723654204938186</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.49851553721209</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H10">
-        <v>6.49851553721209</v>
+        <v>19.529551</v>
       </c>
       <c r="I10">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J10">
-        <v>0.09277608304170812</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9128030088077</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N10">
-        <v>13.9128030088077</v>
+        <v>15.317941</v>
       </c>
       <c r="O10">
-        <v>0.1261618277988245</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P10">
-        <v>0.1261618277988245</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q10">
-        <v>90.41256651890795</v>
+        <v>33.23916777494345</v>
       </c>
       <c r="R10">
-        <v>90.41256651890795</v>
+        <v>299.152509974491</v>
       </c>
       <c r="S10">
-        <v>0.01170480021255742</v>
+        <v>0.003999626954176976</v>
       </c>
       <c r="T10">
-        <v>0.01170480021255742</v>
+        <v>0.003999626954176976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.62415687119206</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H11">
-        <v>4.62415687119206</v>
+        <v>19.529551</v>
       </c>
       <c r="I11">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J11">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.65495039995025</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N11">
-        <v>3.65495039995025</v>
+        <v>278.476586</v>
       </c>
       <c r="O11">
-        <v>0.03314322949012163</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P11">
-        <v>0.03314322949012163</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q11">
-        <v>16.90106400579612</v>
+        <v>604.2802987325429</v>
       </c>
       <c r="R11">
-        <v>16.90106400579612</v>
+        <v>5438.522688592885</v>
       </c>
       <c r="S11">
-        <v>0.002188009755547845</v>
+        <v>0.07271228290230278</v>
       </c>
       <c r="T11">
-        <v>0.002188009755547845</v>
+        <v>0.07271228290230278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.62415687119206</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H12">
-        <v>4.62415687119206</v>
+        <v>19.529551</v>
       </c>
       <c r="I12">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J12">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>92.7096835271813</v>
+        <v>0.04351533333333333</v>
       </c>
       <c r="N12">
-        <v>92.7096835271813</v>
+        <v>0.130546</v>
       </c>
       <c r="O12">
-        <v>0.8406949427110538</v>
+        <v>0.0003830659699865731</v>
       </c>
       <c r="P12">
-        <v>0.8406949427110538</v>
+        <v>0.0003830659699865732</v>
       </c>
       <c r="Q12">
-        <v>428.7041201082567</v>
+        <v>0.283278307205111</v>
       </c>
       <c r="R12">
-        <v>428.7041201082567</v>
+        <v>2.549504764846</v>
       </c>
       <c r="S12">
-        <v>0.05549998489555073</v>
+        <v>3.408651987626714E-05</v>
       </c>
       <c r="T12">
-        <v>0.05549998489555073</v>
+        <v>3.408651987626715E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.62415687119206</v>
+        <v>6.509850333333333</v>
       </c>
       <c r="H13">
-        <v>4.62415687119206</v>
+        <v>19.529551</v>
       </c>
       <c r="I13">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="J13">
-        <v>0.06601679405442318</v>
+        <v>0.0889834194289352</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.9128030088077</v>
+        <v>15.62246733333333</v>
       </c>
       <c r="N13">
-        <v>13.9128030088077</v>
+        <v>46.867402</v>
       </c>
       <c r="O13">
-        <v>0.1261618277988245</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="P13">
-        <v>0.1261618277988245</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="Q13">
-        <v>64.33498363071969</v>
+        <v>101.6999241773891</v>
       </c>
       <c r="R13">
-        <v>64.33498363071969</v>
+        <v>915.2993175965019</v>
       </c>
       <c r="S13">
-        <v>0.008328799403324601</v>
+        <v>0.01223742305257919</v>
       </c>
       <c r="T13">
-        <v>0.008328799403324601</v>
+        <v>0.01223742305257919</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.720243404417779</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H14">
-        <v>9.720243404417779</v>
+        <v>19.698745</v>
       </c>
       <c r="I14">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J14">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.65495039995025</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N14">
-        <v>3.65495039995025</v>
+        <v>15.317941</v>
       </c>
       <c r="O14">
-        <v>0.03314322949012163</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P14">
-        <v>0.03314322949012163</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q14">
-        <v>35.52700751859054</v>
+        <v>33.52713485378278</v>
       </c>
       <c r="R14">
-        <v>35.52700751859054</v>
+        <v>301.744213684045</v>
       </c>
       <c r="S14">
-        <v>0.00459932220891179</v>
+        <v>0.004034277668004705</v>
       </c>
       <c r="T14">
-        <v>0.00459932220891179</v>
+        <v>0.004034277668004705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.720243404417779</v>
+        <v>6.566248333333333</v>
       </c>
       <c r="H15">
-        <v>9.720243404417779</v>
+        <v>19.698745</v>
       </c>
       <c r="I15">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532249</v>
       </c>
       <c r="J15">
-        <v>0.1387710938151824</v>
+        <v>0.08975432607532248</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.7096835271813</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N15">
-        <v>92.7096835271813</v>
+        <v>278.476586</v>
       </c>
       <c r="O15">
-        <v>0.8406949427110538</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P15">
-        <v>0.8406949427110538</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q15">
-        <v>901.1606898307436</v>
+        <v>609.5154728982856</v>
       </c>
       <c r="R15">
-        <v>901.1606898307436</v>
+        <v>5485.63925608457</v>
       </c>
       <c r="S15">
-        <v>0.1166641567649051</v>
+        <v>0.07334222477825131</v>
       </c>
       <c r="T15">
-        <v>0.1166641567649051</v>
+        <v>0.07334222477825129</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.566248333333333</v>
+      </c>
+      <c r="H16">
+        <v>19.698745</v>
+      </c>
+      <c r="I16">
+        <v>0.08975432607532249</v>
+      </c>
+      <c r="J16">
+        <v>0.08975432607532248</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04351533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.130546</v>
+      </c>
+      <c r="O16">
+        <v>0.0003830659699865731</v>
+      </c>
+      <c r="P16">
+        <v>0.0003830659699865732</v>
+      </c>
+      <c r="Q16">
+        <v>0.2857324849744444</v>
+      </c>
+      <c r="R16">
+        <v>2.57159236477</v>
+      </c>
+      <c r="S16">
+        <v>3.438182797853459E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.438182797853459E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.566248333333333</v>
+      </c>
+      <c r="H17">
+        <v>19.698745</v>
+      </c>
+      <c r="I17">
+        <v>0.08975432607532249</v>
+      </c>
+      <c r="J17">
+        <v>0.08975432607532248</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.62246733333333</v>
+      </c>
+      <c r="N17">
+        <v>46.867402</v>
+      </c>
+      <c r="O17">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="P17">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="Q17">
+        <v>102.5810000900544</v>
+      </c>
+      <c r="R17">
+        <v>923.2290008104899</v>
+      </c>
+      <c r="S17">
+        <v>0.01234344180108795</v>
+      </c>
+      <c r="T17">
+        <v>0.01234344180108795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.720243404417779</v>
-      </c>
-      <c r="H16">
-        <v>9.720243404417779</v>
-      </c>
-      <c r="I16">
-        <v>0.1387710938151824</v>
-      </c>
-      <c r="J16">
-        <v>0.1387710938151824</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.9128030088077</v>
-      </c>
-      <c r="N16">
-        <v>13.9128030088077</v>
-      </c>
-      <c r="O16">
-        <v>0.1261618277988245</v>
-      </c>
-      <c r="P16">
-        <v>0.1261618277988245</v>
-      </c>
-      <c r="Q16">
-        <v>135.2358316833269</v>
-      </c>
-      <c r="R16">
-        <v>135.2358316833269</v>
-      </c>
-      <c r="S16">
-        <v>0.01750761484136557</v>
-      </c>
-      <c r="T16">
-        <v>0.01750761484136557</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H18">
+        <v>31.535362</v>
+      </c>
+      <c r="I18">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J18">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.105980333333334</v>
+      </c>
+      <c r="N18">
+        <v>15.317941</v>
+      </c>
+      <c r="O18">
+        <v>0.04494800244635684</v>
+      </c>
+      <c r="P18">
+        <v>0.04494800244635684</v>
+      </c>
+      <c r="Q18">
+        <v>53.67297939218245</v>
+      </c>
+      <c r="R18">
+        <v>483.056814529642</v>
+      </c>
+      <c r="S18">
+        <v>0.006458401622491392</v>
+      </c>
+      <c r="T18">
+        <v>0.006458401622491392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H19">
+        <v>31.535362</v>
+      </c>
+      <c r="I19">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J19">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>92.82552866666667</v>
+      </c>
+      <c r="N19">
+        <v>278.476586</v>
+      </c>
+      <c r="O19">
+        <v>0.8171441754985934</v>
+      </c>
+      <c r="P19">
+        <v>0.8171441754985934</v>
+      </c>
+      <c r="Q19">
+        <v>975.7622164482368</v>
+      </c>
+      <c r="R19">
+        <v>8781.859948034131</v>
+      </c>
+      <c r="S19">
+        <v>0.1174122315034549</v>
+      </c>
+      <c r="T19">
+        <v>0.1174122315034549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H20">
+        <v>31.535362</v>
+      </c>
+      <c r="I20">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J20">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04351533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.130546</v>
+      </c>
+      <c r="O20">
+        <v>0.0003830659699865731</v>
+      </c>
+      <c r="P20">
+        <v>0.0003830659699865732</v>
+      </c>
+      <c r="Q20">
+        <v>0.4574239297391111</v>
+      </c>
+      <c r="R20">
+        <v>4.116815367651999</v>
+      </c>
+      <c r="S20">
+        <v>5.504124204485191E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.504124204485193E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.51178733333333</v>
+      </c>
+      <c r="H21">
+        <v>31.535362</v>
+      </c>
+      <c r="I21">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="J21">
+        <v>0.1436860654753049</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.62246733333333</v>
+      </c>
+      <c r="N21">
+        <v>46.867402</v>
+      </c>
+      <c r="O21">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="P21">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="Q21">
+        <v>164.2200542299471</v>
+      </c>
+      <c r="R21">
+        <v>1477.980488069524</v>
+      </c>
+      <c r="S21">
+        <v>0.01976039110731372</v>
+      </c>
+      <c r="T21">
+        <v>0.01976039110731372</v>
       </c>
     </row>
   </sheetData>
